--- a/biology/Botanique/Brasiliopuntia/Brasiliopuntia.xlsx
+++ b/biology/Botanique/Brasiliopuntia/Brasiliopuntia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brasiliopuntia brasiliensis
 Brasiliopuntia brasiliensis (Willdenow) A. Berger 1926 est la seule espèce du genre Brasiliopuntia de la famille des cactus (Cactaceae), proche du genre Opuntia.
-Ce cactus  est originaire du centre du Brésil, du nord de l'Argentine, de l'est de la Bolivie, de l'est du Pérou et du Paraguay a été introduit aux États-Unis, notamment en Floride. On le rencontre au sud des zones néotropicales[1].
+Ce cactus  est originaire du centre du Brésil, du nord de l'Argentine, de l'est de la Bolivie, de l'est du Pérou et du Paraguay a été introduit aux États-Unis, notamment en Floride. On le rencontre au sud des zones néotropicales.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cactus brasiliensis Willdenow 1814
 Opuntia brasiliensis (Willdenow) Haworth 1819
@@ -550,7 +564,9 @@
           <t>Description de l'espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brasiliopuntia présente des cladodes minces, légèrement tordus et irréguliers, implantés sur un tronc central cylindrique. Les tissus sont de couleur vert vif.
 Les aréoles blanches sont très espacées et portent chacune 1 à 2 aiguillons minces, bruns, ou blancs rosé dirigés vers le haut et de 1,5 cm de long.
